--- a/docs/acc.xlsx
+++ b/docs/acc.xlsx
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>测试时间:  : 2025-11-05 17:09:41</t>
+          <t>测试时间:  : 2025-11-07 13:54:00</t>
         </is>
       </c>
     </row>
@@ -550,22 +550,67 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Qwen3-0.6B</t>
+          <t>Qwen3-4B-Instruct-2507</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>0.3763 ± 0.0048</t>
+          <t>0.3871 ± 0.0049</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>0.4744 ± 0.0050</t>
+          <t>0.4345 ± 0.0049</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>109.60S</t>
+          <t>241.51S</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>0.3878 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>0.4352 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>293.21S</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>0.3889 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>0.4362 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>236.85S</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>0.3878 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>0.4349 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>275.39S</t>
         </is>
       </c>
     </row>

--- a/docs/acc.xlsx
+++ b/docs/acc.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>测试时间:  : 2025-11-07 13:54:00</t>
+          <t>测试时间:  : 2025-11-07 18:24:44</t>
         </is>
       </c>
     </row>
@@ -550,67 +550,139 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Qwen3-4B-Instruct-2507</t>
+          <t>Qwen3-0.6B</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>0.3871 ± 0.0049</t>
+          <t>0.3621 ± 0.0048</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>0.4345 ± 0.0049</t>
+          <t>0.4109 ± 0.0049</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>241.51S</t>
+          <t>90.33S</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>0.3878 ± 0.0049</t>
+          <t>0.3636 ± 0.0048</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>0.4352 ± 0.0049</t>
+          <t>0.4127 ± 0.0049</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>293.21S</t>
+          <t>117.16S</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>0.3889 ± 0.0049</t>
+          <t>0.3609 ± 0.0048</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>0.4362 ± 0.0049</t>
+          <t>0.4069 ± 0.0049</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>236.85S</t>
+          <t>122.25S</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>0.3878 ± 0.0049</t>
+          <t>0.3408 ± 0.0047</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>0.4349 ± 0.0049</t>
+          <t>0.3943 ± 0.0049</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>275.39S</t>
+          <t>144.78S</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hellaswag</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Qwen3-1.7B</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>0.4291 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>0.4924 ± 0.0050</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>132.53S</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>0.4291 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>0.4936 ± 0.0050</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>178.78S</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>0.4302 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>0.4937 ± 0.0050</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>162.98S</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>0.4166 ± 0.0049</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>0.4795 ± 0.0050</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>185.49S</t>
         </is>
       </c>
     </row>
